--- a/Code/Results/Cases/Case_5_108/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_108/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.54241307131856</v>
+        <v>17.96285899517179</v>
       </c>
       <c r="C2">
-        <v>10.90702987753712</v>
+        <v>8.714392610023914</v>
       </c>
       <c r="D2">
-        <v>4.729086703087217</v>
+        <v>8.018325215040209</v>
       </c>
       <c r="E2">
-        <v>7.452297115040079</v>
+        <v>12.81274015110869</v>
       </c>
       <c r="F2">
-        <v>24.45312735613286</v>
+        <v>36.38381813520179</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.968073422862927</v>
+        <v>10.0589417986614</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.593242961611045</v>
+        <v>10.95819561798781</v>
       </c>
       <c r="M2">
-        <v>12.37485965205043</v>
+        <v>16.91670573382469</v>
       </c>
       <c r="N2">
-        <v>12.90823784093659</v>
+        <v>19.49425914206328</v>
       </c>
       <c r="O2">
-        <v>18.30485086735221</v>
+        <v>28.01996576738953</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.32327754573601</v>
+        <v>17.62360461244337</v>
       </c>
       <c r="C3">
-        <v>10.43186282138511</v>
+        <v>8.516187486938058</v>
       </c>
       <c r="D3">
-        <v>4.684398278758003</v>
+        <v>8.023061227770761</v>
       </c>
       <c r="E3">
-        <v>7.513227170190616</v>
+        <v>12.84045685644303</v>
       </c>
       <c r="F3">
-        <v>24.13670662452484</v>
+        <v>36.45166563294448</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.015229779378688</v>
+        <v>10.07565284077265</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.500044068479852</v>
+        <v>10.96114853881381</v>
       </c>
       <c r="M3">
-        <v>11.87603649155023</v>
+        <v>16.84883679745139</v>
       </c>
       <c r="N3">
-        <v>13.09448169682682</v>
+        <v>19.55327155283013</v>
       </c>
       <c r="O3">
-        <v>18.15291568082604</v>
+        <v>28.08663974596839</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.53703884086003</v>
+        <v>17.41491989629298</v>
       </c>
       <c r="C4">
-        <v>10.12841858636599</v>
+        <v>8.391035433927787</v>
       </c>
       <c r="D4">
-        <v>4.658076979633252</v>
+        <v>8.026676513517501</v>
       </c>
       <c r="E4">
-        <v>7.552490778927</v>
+        <v>12.85848449738514</v>
       </c>
       <c r="F4">
-        <v>23.96114437275035</v>
+        <v>36.50140641228868</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.045032489284039</v>
+        <v>10.08643842088905</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.444273553089374</v>
+        <v>10.96409290700717</v>
       </c>
       <c r="M4">
-        <v>11.5629497720802</v>
+        <v>16.80930443695761</v>
       </c>
       <c r="N4">
-        <v>13.21199758414139</v>
+        <v>19.59135150766563</v>
       </c>
       <c r="O4">
-        <v>18.07457010391587</v>
+        <v>28.13351603022231</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.20730677310849</v>
+        <v>17.32989696240397</v>
       </c>
       <c r="C5">
-        <v>10.00192221006862</v>
+        <v>8.339211677544784</v>
       </c>
       <c r="D5">
-        <v>4.647636536039787</v>
+        <v>8.028328138739752</v>
       </c>
       <c r="E5">
-        <v>7.568955584962842</v>
+        <v>12.86608535368003</v>
       </c>
       <c r="F5">
-        <v>23.8942496106613</v>
+        <v>36.52370500449121</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.05739496386511</v>
+        <v>10.0909660190077</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.421929830700554</v>
+        <v>10.96557811437714</v>
       </c>
       <c r="M5">
-        <v>11.43383281188244</v>
+        <v>16.79374380987196</v>
       </c>
       <c r="N5">
-        <v>13.26069232791393</v>
+        <v>19.60733484165292</v>
       </c>
       <c r="O5">
-        <v>18.04630714718796</v>
+        <v>28.15410887254677</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.15199634557372</v>
+        <v>17.31578340534548</v>
       </c>
       <c r="C6">
-        <v>9.980749253730259</v>
+        <v>8.33055802827525</v>
       </c>
       <c r="D6">
-        <v>4.645920293056747</v>
+        <v>8.028613176962972</v>
       </c>
       <c r="E6">
-        <v>7.57171758078827</v>
+        <v>12.86736285587661</v>
       </c>
       <c r="F6">
-        <v>23.88342052367699</v>
+        <v>36.52753009212098</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.05946100906961</v>
+        <v>10.09172583047263</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.41824332123041</v>
+        <v>10.96584199153617</v>
       </c>
       <c r="M6">
-        <v>11.4123062175806</v>
+        <v>16.79119346037586</v>
       </c>
       <c r="N6">
-        <v>13.26882706237575</v>
+        <v>19.61001700996794</v>
       </c>
       <c r="O6">
-        <v>18.04183246571916</v>
+        <v>28.15761822581502</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.53262952876517</v>
+        <v>17.41377302357473</v>
       </c>
       <c r="C7">
-        <v>10.12672396953267</v>
+        <v>8.390339792512771</v>
       </c>
       <c r="D7">
-        <v>4.657935013467893</v>
+        <v>8.026698065060293</v>
       </c>
       <c r="E7">
-        <v>7.552710949474288</v>
+        <v>12.85858597413633</v>
       </c>
       <c r="F7">
-        <v>23.9602234744665</v>
+        <v>36.50169892931503</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.04519832724674</v>
+        <v>10.08649894511634</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.443970643353389</v>
+        <v>10.96411178051005</v>
       </c>
       <c r="M7">
-        <v>11.56121440319337</v>
+        <v>16.80909234319097</v>
       </c>
       <c r="N7">
-        <v>13.21265102003013</v>
+        <v>19.59156517830712</v>
       </c>
       <c r="O7">
-        <v>18.0741742365425</v>
+        <v>28.13378772196553</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.12994910839988</v>
+        <v>17.84603063436421</v>
       </c>
       <c r="C8">
-        <v>10.7456728804781</v>
+        <v>8.646794423067822</v>
       </c>
       <c r="D8">
-        <v>4.713449087622793</v>
+        <v>8.01981168305803</v>
       </c>
       <c r="E8">
-        <v>7.472920562124941</v>
+        <v>12.82208772043336</v>
       </c>
       <c r="F8">
-        <v>24.34010833959532</v>
+        <v>36.4055325485127</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.98415944907634</v>
+        <v>10.06459505047874</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.560816905323517</v>
+        <v>10.95897953747855</v>
       </c>
       <c r="M8">
-        <v>12.20437978197156</v>
+        <v>16.8928673387155</v>
       </c>
       <c r="N8">
-        <v>12.97180527572803</v>
+        <v>19.51422420345074</v>
       </c>
       <c r="O8">
-        <v>18.24930801097325</v>
+        <v>28.04172085213545</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.96530248757792</v>
+        <v>18.68580417460907</v>
       </c>
       <c r="C9">
-        <v>11.86313575779627</v>
+        <v>9.120460861147556</v>
       </c>
       <c r="D9">
-        <v>4.830962693780457</v>
+        <v>8.011898067654082</v>
       </c>
       <c r="E9">
-        <v>7.331212997387359</v>
+        <v>12.75849692486836</v>
       </c>
       <c r="F9">
-        <v>25.23561401138224</v>
+        <v>36.28121590091604</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.870991832393527</v>
+        <v>10.02578884954097</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.800702629164166</v>
+        <v>10.95785121921217</v>
       </c>
       <c r="M9">
-        <v>13.40478066912803</v>
+        <v>17.07361231522736</v>
       </c>
       <c r="N9">
-        <v>12.52408528828745</v>
+        <v>19.37715044432072</v>
       </c>
       <c r="O9">
-        <v>18.71511134920618</v>
+        <v>27.90841277700157</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.96343001642752</v>
+        <v>19.291719711254</v>
       </c>
       <c r="C10">
-        <v>12.62171548962311</v>
+        <v>9.448374094535081</v>
       </c>
       <c r="D10">
-        <v>4.922275681512976</v>
+        <v>8.009462304038776</v>
       </c>
       <c r="E10">
-        <v>7.236204328593551</v>
+        <v>12.71660455820026</v>
       </c>
       <c r="F10">
-        <v>25.98728899541268</v>
+        <v>36.2292168087527</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.791529196640286</v>
+        <v>9.999781073023376</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.982452790366558</v>
+        <v>10.96241448552366</v>
       </c>
       <c r="M10">
-        <v>14.24193624616959</v>
+        <v>17.21572265118291</v>
       </c>
       <c r="N10">
-        <v>12.20942457961971</v>
+        <v>19.28525864185478</v>
       </c>
       <c r="O10">
-        <v>19.13656795664633</v>
+        <v>27.83941493266225</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.8250825167148</v>
+        <v>19.56372346085555</v>
       </c>
       <c r="C11">
-        <v>12.95272933557581</v>
+        <v>9.592765311697507</v>
       </c>
       <c r="D11">
-        <v>4.964832272475304</v>
+        <v>8.009081096547579</v>
       </c>
       <c r="E11">
-        <v>7.194988969943683</v>
+        <v>12.6985868344056</v>
       </c>
       <c r="F11">
-        <v>26.34982967901459</v>
+        <v>36.21412465905376</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.756109262146608</v>
+        <v>9.988487638915849</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.06611543444629</v>
+        <v>10.96564845905668</v>
       </c>
       <c r="M11">
-        <v>14.61182031254009</v>
+        <v>17.28223252467275</v>
       </c>
       <c r="N11">
-        <v>12.06922983767285</v>
+        <v>19.2453523562526</v>
       </c>
       <c r="O11">
-        <v>19.34633977640566</v>
+        <v>27.81433688698502</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>25.1446434055618</v>
+        <v>19.6661055612616</v>
       </c>
       <c r="C12">
-        <v>13.07602240771628</v>
+        <v>9.646723727497289</v>
       </c>
       <c r="D12">
-        <v>4.981088262314763</v>
+        <v>8.009040651571016</v>
       </c>
       <c r="E12">
-        <v>7.179673209066223</v>
+        <v>12.69191283547256</v>
       </c>
       <c r="F12">
-        <v>26.49008451403403</v>
+        <v>36.2096416162268</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.742795310969385</v>
+        <v>9.984288019403913</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.097920439352548</v>
+        <v>10.967038412363</v>
       </c>
       <c r="M12">
-        <v>14.75023230965039</v>
+        <v>17.3076715634998</v>
       </c>
       <c r="N12">
-        <v>12.01655417042315</v>
+        <v>19.23051226962888</v>
       </c>
       <c r="O12">
-        <v>19.4284289356513</v>
+        <v>27.80574936777033</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>25.0761182570509</v>
+        <v>19.6440848088027</v>
       </c>
       <c r="C13">
-        <v>13.04956082530155</v>
+        <v>9.635135298810464</v>
       </c>
       <c r="D13">
-        <v>4.977581072093481</v>
+        <v>8.009044750607591</v>
       </c>
       <c r="E13">
-        <v>7.182958704683464</v>
+        <v>12.69334358560981</v>
       </c>
       <c r="F13">
-        <v>26.45974603128669</v>
+        <v>36.2105523200812</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.745658411355623</v>
+        <v>9.985189065415994</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.091065427724355</v>
+        <v>10.96673172853455</v>
       </c>
       <c r="M13">
-        <v>14.72049754987126</v>
+        <v>17.30218178876152</v>
       </c>
       <c r="N13">
-        <v>12.02788061172389</v>
+        <v>19.23369628672439</v>
       </c>
       <c r="O13">
-        <v>19.41063070290182</v>
+        <v>27.80755839236491</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.85150738477594</v>
+        <v>19.57215946040269</v>
       </c>
       <c r="C14">
-        <v>12.96291405761129</v>
+        <v>9.597219096484064</v>
       </c>
       <c r="D14">
-        <v>4.966166873492065</v>
+        <v>8.009075690161833</v>
       </c>
       <c r="E14">
-        <v>7.193723068059978</v>
+        <v>12.69803477890029</v>
       </c>
       <c r="F14">
-        <v>26.36130900983227</v>
+        <v>36.21373114282476</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.755011970000642</v>
+        <v>9.988140593327259</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.068729668198971</v>
+        <v>10.96575950532924</v>
       </c>
       <c r="M14">
-        <v>14.6232411317966</v>
+        <v>17.28432042096259</v>
       </c>
       <c r="N14">
-        <v>12.06488796000038</v>
+        <v>19.24412601692244</v>
       </c>
       <c r="O14">
-        <v>19.35303981599853</v>
+        <v>27.81361216045659</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.71305281191282</v>
+        <v>19.5280195812181</v>
       </c>
       <c r="C15">
-        <v>12.90957205141384</v>
+        <v>9.573899727104026</v>
       </c>
       <c r="D15">
-        <v>4.959193511472175</v>
+        <v>8.009108155274767</v>
       </c>
       <c r="E15">
-        <v>7.200354634090172</v>
+        <v>12.70092764861949</v>
       </c>
       <c r="F15">
-        <v>26.30140021498071</v>
+        <v>36.2158387207791</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.760753982237004</v>
+        <v>9.989958501312914</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.055063983065847</v>
+        <v>10.96518548261167</v>
       </c>
       <c r="M15">
-        <v>14.56345107888428</v>
+        <v>17.273412347463</v>
       </c>
       <c r="N15">
-        <v>12.08760951243807</v>
+        <v>19.25054986180282</v>
       </c>
       <c r="O15">
-        <v>19.31811087444405</v>
+        <v>27.81743869083291</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.90617333212319</v>
+        <v>19.27386209191125</v>
       </c>
       <c r="C16">
-        <v>12.59979693912904</v>
+        <v>9.438838816352794</v>
       </c>
       <c r="D16">
-        <v>4.919514503608511</v>
+        <v>8.009501791143615</v>
       </c>
       <c r="E16">
-        <v>7.23893846142398</v>
+        <v>12.71780292710944</v>
       </c>
       <c r="F16">
-        <v>25.96401125484807</v>
+        <v>36.23037549471317</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.793858127528575</v>
+        <v>10.00052991389302</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.977003500112097</v>
+        <v>10.96222633927998</v>
       </c>
       <c r="M16">
-        <v>14.21753592487192</v>
+        <v>17.21141231557402</v>
       </c>
       <c r="N16">
-        <v>12.21864500171462</v>
+        <v>19.28790466876897</v>
       </c>
       <c r="O16">
-        <v>19.12322712118693</v>
+        <v>27.84118095688666</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.39911416844922</v>
+        <v>19.11694359877237</v>
       </c>
       <c r="C17">
-        <v>12.40613111737279</v>
+        <v>9.354735670428187</v>
       </c>
       <c r="D17">
-        <v>4.895429343102474</v>
+        <v>8.009929008040507</v>
       </c>
       <c r="E17">
-        <v>7.263124039258669</v>
+        <v>12.72842117959557</v>
       </c>
       <c r="F17">
-        <v>25.76231593978028</v>
+        <v>36.24148713787596</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.814348835732472</v>
+        <v>10.00715258247372</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.929354976007786</v>
+        <v>10.96070677496988</v>
       </c>
       <c r="M17">
-        <v>14.00246241464473</v>
+        <v>17.1738441449856</v>
       </c>
       <c r="N17">
-        <v>12.29977790613803</v>
+        <v>19.31130542876007</v>
       </c>
       <c r="O17">
-        <v>19.00833783250623</v>
+        <v>27.85736337945674</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.10300977240398</v>
+        <v>19.02635204333027</v>
       </c>
       <c r="C18">
-        <v>12.29341676842853</v>
+        <v>9.305913779604804</v>
       </c>
       <c r="D18">
-        <v>4.881672329388959</v>
+        <v>8.010243182677131</v>
       </c>
       <c r="E18">
-        <v>7.277223394819043</v>
+        <v>12.7346263750777</v>
       </c>
       <c r="F18">
-        <v>25.64824505751455</v>
+        <v>36.24868420036368</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.826203445326236</v>
+        <v>10.01101239178612</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.902042389052812</v>
+        <v>10.95994184624022</v>
       </c>
       <c r="M18">
-        <v>13.87773169783777</v>
+        <v>17.15241220314711</v>
       </c>
       <c r="N18">
-        <v>12.34672130968196</v>
+        <v>19.32494342608207</v>
       </c>
       <c r="O18">
-        <v>18.94395235675072</v>
+        <v>27.86726487181525</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.00198616505967</v>
+        <v>18.99562462771779</v>
       </c>
       <c r="C19">
-        <v>12.25502754607862</v>
+        <v>9.289307613175655</v>
       </c>
       <c r="D19">
-        <v>4.8770311269551</v>
+        <v>8.010361331449991</v>
       </c>
       <c r="E19">
-        <v>7.282029466665395</v>
+        <v>12.73674417105679</v>
       </c>
       <c r="F19">
-        <v>25.60995537479593</v>
+        <v>36.25125938932289</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.830229218981535</v>
+        <v>10.01232796266106</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.892811443329867</v>
+        <v>10.95970162603849</v>
       </c>
       <c r="M19">
-        <v>13.83532653376003</v>
+        <v>17.14518643425214</v>
       </c>
       <c r="N19">
-        <v>12.36266359897531</v>
+        <v>19.32959170733946</v>
       </c>
       <c r="O19">
-        <v>18.9224419507776</v>
+        <v>27.87071927384602</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.45355227992741</v>
+        <v>19.13368336026589</v>
       </c>
       <c r="C20">
-        <v>12.42688434948382</v>
+        <v>9.363735201353546</v>
       </c>
       <c r="D20">
-        <v>4.897983341596807</v>
+        <v>8.009876450014389</v>
       </c>
       <c r="E20">
-        <v>7.260529916532545</v>
+        <v>12.7272807244806</v>
       </c>
       <c r="F20">
-        <v>25.78358602182466</v>
+        <v>36.24022086525996</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.812160475861124</v>
+        <v>10.00644235110749</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.93441768823048</v>
+        <v>10.96085725399264</v>
       </c>
       <c r="M20">
-        <v>14.02546419869025</v>
+        <v>17.17782520247736</v>
       </c>
       <c r="N20">
-        <v>12.29111248613998</v>
+        <v>19.30879591157635</v>
       </c>
       <c r="O20">
-        <v>19.02039204954574</v>
+        <v>27.85557926439596</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.91766302928692</v>
+        <v>19.59330325229802</v>
       </c>
       <c r="C21">
-        <v>12.9884202827595</v>
+        <v>9.608375772799594</v>
       </c>
       <c r="D21">
-        <v>4.969515724606008</v>
+        <v>8.009063787329286</v>
       </c>
       <c r="E21">
-        <v>7.190553370554302</v>
+        <v>12.69665282421984</v>
       </c>
       <c r="F21">
-        <v>26.39014174926488</v>
+        <v>36.21276400597555</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.752261970022409</v>
+        <v>9.987271572183557</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.075286998618023</v>
+        <v>10.96604059418205</v>
       </c>
       <c r="M21">
-        <v>14.65185318892626</v>
+        <v>17.28955998519716</v>
       </c>
       <c r="N21">
-        <v>12.05400687719591</v>
+        <v>19.24105519062017</v>
       </c>
       <c r="O21">
-        <v>19.36988321591791</v>
+        <v>27.81180934027667</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.83536463180482</v>
+        <v>19.89003723522556</v>
       </c>
       <c r="C22">
-        <v>13.34343204488912</v>
+        <v>9.764056180043996</v>
       </c>
       <c r="D22">
-        <v>5.01708414725522</v>
+        <v>8.009138034976843</v>
       </c>
       <c r="E22">
-        <v>7.146521236044368</v>
+        <v>12.67750351004437</v>
       </c>
       <c r="F22">
-        <v>26.80386522229943</v>
+        <v>36.20200043460335</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.713687786292669</v>
+        <v>9.97519077390297</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.168067284784307</v>
+        <v>10.97039119768078</v>
       </c>
       <c r="M22">
-        <v>15.05156071028572</v>
+        <v>17.36405385631076</v>
       </c>
       <c r="N22">
-        <v>11.90144759341979</v>
+        <v>19.19836508535598</v>
       </c>
       <c r="O22">
-        <v>19.61378381849973</v>
+        <v>27.78850202362442</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>25.34912918569172</v>
+        <v>19.73202995252267</v>
       </c>
       <c r="C23">
-        <v>13.15506021247287</v>
+        <v>9.681361481443796</v>
       </c>
       <c r="D23">
-        <v>4.991622943947682</v>
+        <v>8.009043222692309</v>
       </c>
       <c r="E23">
-        <v>7.169865085290712</v>
+        <v>12.6876446306871</v>
       </c>
       <c r="F23">
-        <v>26.58146848605116</v>
+        <v>36.20708801009873</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.734225163642431</v>
+        <v>9.981597608989302</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.118488924183969</v>
+        <v>10.96798150286697</v>
       </c>
       <c r="M23">
-        <v>14.83913734646945</v>
+        <v>17.32416564143833</v>
       </c>
       <c r="N23">
-        <v>11.98265486254581</v>
+        <v>19.22100515289263</v>
       </c>
       <c r="O23">
-        <v>19.48217451471184</v>
+        <v>27.80045625373992</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.42895511003057</v>
+        <v>19.12611648091769</v>
       </c>
       <c r="C24">
-        <v>12.41750608821772</v>
+        <v>9.359667974525779</v>
       </c>
       <c r="D24">
-        <v>4.896828398534177</v>
+        <v>8.009899997901924</v>
       </c>
       <c r="E24">
-        <v>7.261702113077942</v>
+        <v>12.72779601077957</v>
       </c>
       <c r="F24">
-        <v>25.7739639423779</v>
+        <v>36.24079082769672</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.813149601713373</v>
+        <v>10.00676328361767</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.93212858181068</v>
+        <v>10.96078888378221</v>
       </c>
       <c r="M24">
-        <v>14.01506845622824</v>
+        <v>17.17602484662837</v>
       </c>
       <c r="N24">
-        <v>12.29502919034492</v>
+        <v>19.30992988921721</v>
       </c>
       <c r="O24">
-        <v>19.0149371535128</v>
+        <v>27.85638400018327</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.22661108074748</v>
+        <v>18.4601294075697</v>
       </c>
       <c r="C25">
-        <v>11.571575777909</v>
+        <v>8.995696592002199</v>
       </c>
       <c r="D25">
-        <v>4.798276237886799</v>
+        <v>8.013443396787927</v>
       </c>
       <c r="E25">
-        <v>7.367958741775654</v>
+        <v>12.77484936061652</v>
       </c>
       <c r="F25">
-        <v>24.97699372521813</v>
+        <v>36.30794810966361</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.900937601864714</v>
+        <v>10.03584557192942</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.734764987798004</v>
+        <v>10.95720529110219</v>
       </c>
       <c r="M25">
-        <v>13.08742378712851</v>
+        <v>17.023025827842</v>
       </c>
       <c r="N25">
-        <v>12.64264740189229</v>
+        <v>19.41267864351311</v>
       </c>
       <c r="O25">
-        <v>18.57549006016363</v>
+        <v>27.93940292395218</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_108/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_108/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.96285899517179</v>
+        <v>19.54241307131855</v>
       </c>
       <c r="C2">
-        <v>8.714392610023914</v>
+        <v>10.90702987753714</v>
       </c>
       <c r="D2">
-        <v>8.018325215040209</v>
+        <v>4.729086703087217</v>
       </c>
       <c r="E2">
-        <v>12.81274015110869</v>
+        <v>7.452297115040012</v>
       </c>
       <c r="F2">
-        <v>36.38381813520179</v>
+        <v>24.4531273561328</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.0589417986614</v>
+        <v>5.968073422862895</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.95819561798781</v>
+        <v>6.593242961611025</v>
       </c>
       <c r="M2">
-        <v>16.91670573382469</v>
+        <v>12.3748596520504</v>
       </c>
       <c r="N2">
-        <v>19.49425914206328</v>
+        <v>12.90823784093659</v>
       </c>
       <c r="O2">
-        <v>28.01996576738953</v>
+        <v>18.30485086735213</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +462,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.62360461244337</v>
+        <v>18.32327754573599</v>
       </c>
       <c r="C3">
-        <v>8.516187486938058</v>
+        <v>10.43186282138513</v>
       </c>
       <c r="D3">
-        <v>8.023061227770761</v>
+        <v>4.684398278757866</v>
       </c>
       <c r="E3">
-        <v>12.84045685644303</v>
+        <v>7.513227170190549</v>
       </c>
       <c r="F3">
-        <v>36.45166563294448</v>
+        <v>24.13670662452493</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.07565284077265</v>
+        <v>6.015229779378688</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.96114853881381</v>
+        <v>6.500044068479823</v>
       </c>
       <c r="M3">
-        <v>16.84883679745139</v>
+        <v>11.87603649155024</v>
       </c>
       <c r="N3">
-        <v>19.55327155283013</v>
+        <v>13.09448169682689</v>
       </c>
       <c r="O3">
-        <v>28.08663974596839</v>
+        <v>18.15291568082618</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +503,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.41491989629298</v>
+        <v>17.53703884086003</v>
       </c>
       <c r="C4">
-        <v>8.391035433927787</v>
+        <v>10.12841858636606</v>
       </c>
       <c r="D4">
-        <v>8.026676513517501</v>
+        <v>4.658076979633186</v>
       </c>
       <c r="E4">
-        <v>12.85848449738514</v>
+        <v>7.552490778926934</v>
       </c>
       <c r="F4">
-        <v>36.50140641228868</v>
+        <v>23.96114437275028</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.08643842088905</v>
+        <v>6.045032489283939</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.96409290700717</v>
+        <v>6.444273553089299</v>
       </c>
       <c r="M4">
-        <v>16.80930443695761</v>
+        <v>11.56294977208015</v>
       </c>
       <c r="N4">
-        <v>19.59135150766563</v>
+        <v>13.21199758414143</v>
       </c>
       <c r="O4">
-        <v>28.13351603022231</v>
+        <v>18.07457010391583</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +544,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.32989696240397</v>
+        <v>17.20730677310847</v>
       </c>
       <c r="C5">
-        <v>8.339211677544784</v>
+        <v>10.00192221006854</v>
       </c>
       <c r="D5">
-        <v>8.028328138739752</v>
+        <v>4.647636536039661</v>
       </c>
       <c r="E5">
-        <v>12.86608535368003</v>
+        <v>7.568955584962842</v>
       </c>
       <c r="F5">
-        <v>36.52370500449121</v>
+        <v>23.89424961066142</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.0909660190077</v>
+        <v>6.05739496386511</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.96557811437714</v>
+        <v>6.42192983070055</v>
       </c>
       <c r="M5">
-        <v>16.79374380987196</v>
+        <v>11.43383281188246</v>
       </c>
       <c r="N5">
-        <v>19.60733484165292</v>
+        <v>13.26069232791396</v>
       </c>
       <c r="O5">
-        <v>28.15410887254677</v>
+        <v>18.04630714718812</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +585,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.31578340534548</v>
+        <v>17.15199634557372</v>
       </c>
       <c r="C6">
-        <v>8.33055802827525</v>
+        <v>9.980749253730046</v>
       </c>
       <c r="D6">
-        <v>8.028613176962972</v>
+        <v>4.645920293056693</v>
       </c>
       <c r="E6">
-        <v>12.86736285587661</v>
+        <v>7.571717580788275</v>
       </c>
       <c r="F6">
-        <v>36.52753009212098</v>
+        <v>23.88342052367693</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.09172583047263</v>
+        <v>6.059461009069643</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.96584199153617</v>
+        <v>6.418243321230492</v>
       </c>
       <c r="M6">
-        <v>16.79119346037586</v>
+        <v>11.41230621758059</v>
       </c>
       <c r="N6">
-        <v>19.61001700996794</v>
+        <v>13.26882706237575</v>
       </c>
       <c r="O6">
-        <v>28.15761822581502</v>
+        <v>18.04183246571915</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +626,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.41377302357473</v>
+        <v>17.53262952876515</v>
       </c>
       <c r="C7">
-        <v>8.390339792512771</v>
+        <v>10.12672396953289</v>
       </c>
       <c r="D7">
-        <v>8.026698065060293</v>
+        <v>4.657935013468066</v>
       </c>
       <c r="E7">
-        <v>12.85858597413633</v>
+        <v>7.552710949474159</v>
       </c>
       <c r="F7">
-        <v>36.50169892931503</v>
+        <v>23.96022347446644</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.08649894511634</v>
+        <v>6.045198327246607</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.96411178051005</v>
+        <v>6.443970643353311</v>
       </c>
       <c r="M7">
-        <v>16.80909234319097</v>
+        <v>11.56121440319331</v>
       </c>
       <c r="N7">
-        <v>19.59156517830712</v>
+        <v>13.21265102003013</v>
       </c>
       <c r="O7">
-        <v>28.13378772196553</v>
+        <v>18.07417423654242</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +667,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.84603063436421</v>
+        <v>19.12994910839986</v>
       </c>
       <c r="C8">
-        <v>8.646794423067822</v>
+        <v>10.74567288047801</v>
       </c>
       <c r="D8">
-        <v>8.01981168305803</v>
+        <v>4.713449087622804</v>
       </c>
       <c r="E8">
-        <v>12.82208772043336</v>
+        <v>7.472920562124942</v>
       </c>
       <c r="F8">
-        <v>36.4055325485127</v>
+        <v>24.34010833959529</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.06459505047874</v>
+        <v>5.984159449076374</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.95897953747855</v>
+        <v>6.560816905323574</v>
       </c>
       <c r="M8">
-        <v>16.8928673387155</v>
+        <v>12.20437978197156</v>
       </c>
       <c r="N8">
-        <v>19.51422420345074</v>
+        <v>12.97180527572799</v>
       </c>
       <c r="O8">
-        <v>28.04172085213545</v>
+        <v>18.24930801097323</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +708,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.68580417460907</v>
+        <v>21.96530248757794</v>
       </c>
       <c r="C9">
-        <v>9.120460861147556</v>
+        <v>11.86313575779626</v>
       </c>
       <c r="D9">
-        <v>8.011898067654082</v>
+        <v>4.830962693780387</v>
       </c>
       <c r="E9">
-        <v>12.75849692486836</v>
+        <v>7.331212997387422</v>
       </c>
       <c r="F9">
-        <v>36.28121590091604</v>
+        <v>25.23561401138227</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.02578884954097</v>
+        <v>5.870991832393627</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.95785121921217</v>
+        <v>6.800702629164208</v>
       </c>
       <c r="M9">
-        <v>17.07361231522736</v>
+        <v>13.40478066912802</v>
       </c>
       <c r="N9">
-        <v>19.37715044432072</v>
+        <v>12.52408528828751</v>
       </c>
       <c r="O9">
-        <v>27.90841277700157</v>
+        <v>18.71511134920623</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +749,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.291719711254</v>
+        <v>23.96343001642752</v>
       </c>
       <c r="C10">
-        <v>9.448374094535081</v>
+        <v>12.62171548962309</v>
       </c>
       <c r="D10">
-        <v>8.009462304038776</v>
+        <v>4.922275681512924</v>
       </c>
       <c r="E10">
-        <v>12.71660455820026</v>
+        <v>7.23620432859355</v>
       </c>
       <c r="F10">
-        <v>36.2292168087527</v>
+        <v>25.98728899541274</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.999781073023376</v>
+        <v>5.791529196640287</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.96241448552366</v>
+        <v>6.9824527903666</v>
       </c>
       <c r="M10">
-        <v>17.21572265118291</v>
+        <v>14.24193624616961</v>
       </c>
       <c r="N10">
-        <v>19.28525864185478</v>
+        <v>12.2094245796197</v>
       </c>
       <c r="O10">
-        <v>27.83941493266225</v>
+        <v>19.13656795664639</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +790,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.56372346085555</v>
+        <v>24.82508251671477</v>
       </c>
       <c r="C11">
-        <v>9.592765311697507</v>
+        <v>12.95272933557573</v>
       </c>
       <c r="D11">
-        <v>8.009081096547579</v>
+        <v>4.964832272475045</v>
       </c>
       <c r="E11">
-        <v>12.6985868344056</v>
+        <v>7.194988969943683</v>
       </c>
       <c r="F11">
-        <v>36.21412465905376</v>
+        <v>26.34982967901465</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.988487638915849</v>
+        <v>5.75610926214674</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.96564845905668</v>
+        <v>7.066115434446309</v>
       </c>
       <c r="M11">
-        <v>17.28223252467275</v>
+        <v>14.61182031254013</v>
       </c>
       <c r="N11">
-        <v>19.2453523562526</v>
+        <v>12.06922983767288</v>
       </c>
       <c r="O11">
-        <v>27.81433688698502</v>
+        <v>19.34633977640577</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +831,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.6661055612616</v>
+        <v>25.14464340556178</v>
       </c>
       <c r="C12">
-        <v>9.646723727497289</v>
+        <v>13.07602240771628</v>
       </c>
       <c r="D12">
-        <v>8.009040651571016</v>
+        <v>4.981088262314659</v>
       </c>
       <c r="E12">
-        <v>12.69191283547256</v>
+        <v>7.179673209066221</v>
       </c>
       <c r="F12">
-        <v>36.2096416162268</v>
+        <v>26.49008451403408</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.984288019403913</v>
+        <v>5.742795310969417</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.967038412363</v>
+        <v>7.09792043935252</v>
       </c>
       <c r="M12">
-        <v>17.3076715634998</v>
+        <v>14.7502323096504</v>
       </c>
       <c r="N12">
-        <v>19.23051226962888</v>
+        <v>12.01655417042314</v>
       </c>
       <c r="O12">
-        <v>27.80574936777033</v>
+        <v>19.42842893565134</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +872,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.6440848088027</v>
+        <v>25.0761182570509</v>
       </c>
       <c r="C13">
-        <v>9.635135298810464</v>
+        <v>13.04956082530172</v>
       </c>
       <c r="D13">
-        <v>8.009044750607591</v>
+        <v>4.977581072093389</v>
       </c>
       <c r="E13">
-        <v>12.69334358560981</v>
+        <v>7.182958704683469</v>
       </c>
       <c r="F13">
-        <v>36.2105523200812</v>
+        <v>26.45974603128668</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.985189065415994</v>
+        <v>5.745658411355655</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.96673172853455</v>
+        <v>7.091065427724342</v>
       </c>
       <c r="M13">
-        <v>17.30218178876152</v>
+        <v>14.72049754987127</v>
       </c>
       <c r="N13">
-        <v>19.23369628672439</v>
+        <v>12.02788061172386</v>
       </c>
       <c r="O13">
-        <v>27.80755839236491</v>
+        <v>19.41063070290182</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +913,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.57215946040269</v>
+        <v>24.85150738477586</v>
       </c>
       <c r="C14">
-        <v>9.597219096484064</v>
+        <v>12.96291405761154</v>
       </c>
       <c r="D14">
-        <v>8.009075690161833</v>
+        <v>4.966166873492013</v>
       </c>
       <c r="E14">
-        <v>12.69803477890029</v>
+        <v>7.19372306805998</v>
       </c>
       <c r="F14">
-        <v>36.21373114282476</v>
+        <v>26.36130900983234</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.988140593327259</v>
+        <v>5.755011970000642</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.96575950532924</v>
+        <v>7.068729668198887</v>
       </c>
       <c r="M14">
-        <v>17.28432042096259</v>
+        <v>14.62324113179664</v>
       </c>
       <c r="N14">
-        <v>19.24412601692244</v>
+        <v>12.06488796000042</v>
       </c>
       <c r="O14">
-        <v>27.81361216045659</v>
+        <v>19.35303981599859</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +954,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.5280195812181</v>
+        <v>24.71305281191279</v>
       </c>
       <c r="C15">
-        <v>9.573899727104026</v>
+        <v>12.90957205141384</v>
       </c>
       <c r="D15">
-        <v>8.009108155274767</v>
+        <v>4.959193511472152</v>
       </c>
       <c r="E15">
-        <v>12.70092764861949</v>
+        <v>7.200354634090113</v>
       </c>
       <c r="F15">
-        <v>36.2158387207791</v>
+        <v>26.30140021498076</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.989958501312914</v>
+        <v>5.760753982237005</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.96518548261167</v>
+        <v>7.055063983065817</v>
       </c>
       <c r="M15">
-        <v>17.273412347463</v>
+        <v>14.56345107888428</v>
       </c>
       <c r="N15">
-        <v>19.25054986180282</v>
+        <v>12.08760951243814</v>
       </c>
       <c r="O15">
-        <v>27.81743869083291</v>
+        <v>19.31811087444411</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +995,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.27386209191125</v>
+        <v>23.90617333212315</v>
       </c>
       <c r="C16">
-        <v>9.438838816352794</v>
+        <v>12.59979693912902</v>
       </c>
       <c r="D16">
-        <v>8.009501791143615</v>
+        <v>4.919514503608506</v>
       </c>
       <c r="E16">
-        <v>12.71780292710944</v>
+        <v>7.238938461423978</v>
       </c>
       <c r="F16">
-        <v>36.23037549471317</v>
+        <v>25.96401125484813</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.00052991389302</v>
+        <v>5.793858127528609</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.96222633927998</v>
+        <v>6.977003500112098</v>
       </c>
       <c r="M16">
-        <v>17.21141231557402</v>
+        <v>14.21753592487192</v>
       </c>
       <c r="N16">
-        <v>19.28790466876897</v>
+        <v>12.21864500171465</v>
       </c>
       <c r="O16">
-        <v>27.84118095688666</v>
+        <v>19.123227121187</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1036,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.11694359877237</v>
+        <v>23.39911416844925</v>
       </c>
       <c r="C17">
-        <v>9.354735670428187</v>
+        <v>12.40613111737305</v>
       </c>
       <c r="D17">
-        <v>8.009929008040507</v>
+        <v>4.895429343102534</v>
       </c>
       <c r="E17">
-        <v>12.72842117959557</v>
+        <v>7.263124039258857</v>
       </c>
       <c r="F17">
-        <v>36.24148713787596</v>
+        <v>25.76231593978014</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.00715258247372</v>
+        <v>5.814348835732605</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.96070677496988</v>
+        <v>6.929354976007779</v>
       </c>
       <c r="M17">
-        <v>17.1738441449856</v>
+        <v>14.00246241464472</v>
       </c>
       <c r="N17">
-        <v>19.31130542876007</v>
+        <v>12.29977790613799</v>
       </c>
       <c r="O17">
-        <v>27.85736337945674</v>
+        <v>19.00833783250612</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1077,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.02635204333027</v>
+        <v>23.10300977240401</v>
       </c>
       <c r="C18">
-        <v>9.305913779604804</v>
+        <v>12.29341676842862</v>
       </c>
       <c r="D18">
-        <v>8.010243182677131</v>
+        <v>4.881672329388928</v>
       </c>
       <c r="E18">
-        <v>12.7346263750777</v>
+        <v>7.277223394819048</v>
       </c>
       <c r="F18">
-        <v>36.24868420036368</v>
+        <v>25.64824505751447</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.01101239178612</v>
+        <v>5.826203445326203</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.95994184624022</v>
+        <v>6.902042389052751</v>
       </c>
       <c r="M18">
-        <v>17.15241220314711</v>
+        <v>13.87773169783774</v>
       </c>
       <c r="N18">
-        <v>19.32494342608207</v>
+        <v>12.34672130968192</v>
       </c>
       <c r="O18">
-        <v>27.86726487181525</v>
+        <v>18.94395235675066</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1118,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.99562462771779</v>
+        <v>23.00198616505966</v>
       </c>
       <c r="C19">
-        <v>9.289307613175655</v>
+        <v>12.25502754607863</v>
       </c>
       <c r="D19">
-        <v>8.010361331449991</v>
+        <v>4.877031126955266</v>
       </c>
       <c r="E19">
-        <v>12.73674417105679</v>
+        <v>7.282029466665396</v>
       </c>
       <c r="F19">
-        <v>36.25125938932289</v>
+        <v>25.60995537479588</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.01232796266106</v>
+        <v>5.830229218981502</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.95970162603849</v>
+        <v>6.892811443329894</v>
       </c>
       <c r="M19">
-        <v>17.14518643425214</v>
+        <v>13.83532653376002</v>
       </c>
       <c r="N19">
-        <v>19.32959170733946</v>
+        <v>12.36266359897524</v>
       </c>
       <c r="O19">
-        <v>27.87071927384602</v>
+        <v>18.92244195077749</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1159,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.13368336026589</v>
+        <v>23.45355227992739</v>
       </c>
       <c r="C20">
-        <v>9.363735201353546</v>
+        <v>12.42688434948371</v>
       </c>
       <c r="D20">
-        <v>8.009876450014389</v>
+        <v>4.897983341596706</v>
       </c>
       <c r="E20">
-        <v>12.7272807244806</v>
+        <v>7.260529916532551</v>
       </c>
       <c r="F20">
-        <v>36.24022086525996</v>
+        <v>25.78358602182472</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.00644235110749</v>
+        <v>5.812160475861123</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.96085725399264</v>
+        <v>6.934417688230493</v>
       </c>
       <c r="M20">
-        <v>17.17782520247736</v>
+        <v>14.02546419869027</v>
       </c>
       <c r="N20">
-        <v>19.30879591157635</v>
+        <v>12.29111248613998</v>
       </c>
       <c r="O20">
-        <v>27.85557926439596</v>
+        <v>19.0203920495458</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1200,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.59330325229802</v>
+        <v>24.91766302928687</v>
       </c>
       <c r="C21">
-        <v>9.608375772799594</v>
+        <v>12.98842028275958</v>
       </c>
       <c r="D21">
-        <v>8.009063787329286</v>
+        <v>4.969515724605963</v>
       </c>
       <c r="E21">
-        <v>12.69665282421984</v>
+        <v>7.190553370554303</v>
       </c>
       <c r="F21">
-        <v>36.21276400597555</v>
+        <v>26.39014174926495</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.987271572183557</v>
+        <v>5.752261970022476</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.96604059418205</v>
+        <v>7.075286998618004</v>
       </c>
       <c r="M21">
-        <v>17.28955998519716</v>
+        <v>14.65185318892629</v>
       </c>
       <c r="N21">
-        <v>19.24105519062017</v>
+        <v>12.05400687719602</v>
       </c>
       <c r="O21">
-        <v>27.81180934027667</v>
+        <v>19.36988321591797</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1241,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.89003723522556</v>
+        <v>25.83536463180479</v>
       </c>
       <c r="C22">
-        <v>9.764056180043996</v>
+        <v>13.34343204488936</v>
       </c>
       <c r="D22">
-        <v>8.009138034976843</v>
+        <v>5.017084147255063</v>
       </c>
       <c r="E22">
-        <v>12.67750351004437</v>
+        <v>7.146521236044369</v>
       </c>
       <c r="F22">
-        <v>36.20200043460335</v>
+        <v>26.80386522229935</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.97519077390297</v>
+        <v>5.713687786292769</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.97039119768078</v>
+        <v>7.168067284784231</v>
       </c>
       <c r="M22">
-        <v>17.36405385631076</v>
+        <v>15.05156071028572</v>
       </c>
       <c r="N22">
-        <v>19.19836508535598</v>
+        <v>11.90144759341979</v>
       </c>
       <c r="O22">
-        <v>27.78850202362442</v>
+        <v>19.61378381849972</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1282,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.73202995252267</v>
+        <v>25.34912918569173</v>
       </c>
       <c r="C23">
-        <v>9.681361481443796</v>
+        <v>13.15506021247292</v>
       </c>
       <c r="D23">
-        <v>8.009043222692309</v>
+        <v>4.991622943947687</v>
       </c>
       <c r="E23">
-        <v>12.6876446306871</v>
+        <v>7.169865085290779</v>
       </c>
       <c r="F23">
-        <v>36.20708801009873</v>
+        <v>26.58146848605122</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.981597608989302</v>
+        <v>5.734225163642565</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.96798150286697</v>
+        <v>7.118488924183983</v>
       </c>
       <c r="M23">
-        <v>17.32416564143833</v>
+        <v>14.83913734646948</v>
       </c>
       <c r="N23">
-        <v>19.22100515289263</v>
+        <v>11.98265486254587</v>
       </c>
       <c r="O23">
-        <v>27.80045625373992</v>
+        <v>19.48217451471189</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1323,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.12611648091769</v>
+        <v>23.42895511003055</v>
       </c>
       <c r="C24">
-        <v>9.359667974525779</v>
+        <v>12.41750608821781</v>
       </c>
       <c r="D24">
-        <v>8.009899997901924</v>
+        <v>4.896828398534072</v>
       </c>
       <c r="E24">
-        <v>12.72779601077957</v>
+        <v>7.261702113077946</v>
       </c>
       <c r="F24">
-        <v>36.24079082769672</v>
+        <v>25.77396394237792</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.00676328361767</v>
+        <v>5.813149601713439</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.96078888378221</v>
+        <v>6.932128581810662</v>
       </c>
       <c r="M24">
-        <v>17.17602484662837</v>
+        <v>14.01506845622825</v>
       </c>
       <c r="N24">
-        <v>19.30992988921721</v>
+        <v>12.29502919034491</v>
       </c>
       <c r="O24">
-        <v>27.85638400018327</v>
+        <v>19.01493715351285</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1364,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.4601294075697</v>
+        <v>21.22661108074747</v>
       </c>
       <c r="C25">
-        <v>8.995696592002199</v>
+        <v>11.571575777909</v>
       </c>
       <c r="D25">
-        <v>8.013443396787927</v>
+        <v>4.798276237886691</v>
       </c>
       <c r="E25">
-        <v>12.77484936061652</v>
+        <v>7.36795874177559</v>
       </c>
       <c r="F25">
-        <v>36.30794810966361</v>
+        <v>24.97699372521816</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.03584557192942</v>
+        <v>5.900937601864749</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.95720529110219</v>
+        <v>6.734764987797935</v>
       </c>
       <c r="M25">
-        <v>17.023025827842</v>
+        <v>13.0874237871285</v>
       </c>
       <c r="N25">
-        <v>19.41267864351311</v>
+        <v>12.64264740189233</v>
       </c>
       <c r="O25">
-        <v>27.93940292395218</v>
+        <v>18.57549006016372</v>
       </c>
     </row>
   </sheetData>
